--- a/data/financial_statements/soci/PNC.xlsx
+++ b/data/financial_statements/soci/PNC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2222 +593,2270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>7188000000</v>
+      </c>
+      <c r="C2">
         <v>6206000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5346000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4802000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5240000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5316000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4787000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4355000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4360000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4473000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4404000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5025000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4942000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5241000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5214000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5239000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4276000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5114000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4993000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4668000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4740000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4575000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4476000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4244000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4197000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4142000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4110000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3974000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>4119000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4054000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4119000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3978000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4187000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4065000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4037000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3992000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>4286000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4134000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4275000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4177000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.3718</v>
+      </c>
+      <c r="C3">
         <v>0.1674</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1168</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1026</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2018</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1885</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.08699999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1333</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.1178</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1465</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1554</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0408</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1558</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0248</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0443</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1223</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.0979</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1178</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1155</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0999</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1294</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1045</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0891</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0679</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0189</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0217</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0022</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.001</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0162</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0027</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0203</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0035</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0231</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0167</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0557</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0443</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.007</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0516</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.09810000000000001</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0344</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1425000000</v>
+      </c>
+      <c r="C4">
         <v>657000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>230000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>110000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>113000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>119000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>120000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>135000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>152000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>192000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>328000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>689000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>846000000</v>
-      </c>
-      <c r="N4">
-        <v>999000000</v>
       </c>
       <c r="O4">
         <v>999000000</v>
       </c>
       <c r="P4">
+        <v>999000000</v>
+      </c>
+      <c r="Q4">
         <v>953000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>878000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>757000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>669000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>557000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>480000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>450000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>416000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>360000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>323000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>313000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>316000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>309000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>266000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>279000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>253000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>247000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>240000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>224000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>227000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>215000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>213000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>214000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>211000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>222000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>5763000000</v>
+      </c>
+      <c r="C5">
         <v>5549000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5116000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4692000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5127000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5197000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4667000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4220000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4208000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4281000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4076000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4336000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4096000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>4242000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4215000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4286000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3398000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4357000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4324000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4111000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>4260000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4125000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4060000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3884000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3874000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3829000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3794000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3665000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3853000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3775000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3866000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3731000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3947000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3841000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3810000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3777000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>4073000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3920000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>4064000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>3955000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3882000000</v>
+      </c>
+      <c r="C6">
         <v>3521000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3280000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2964000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3464000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3384000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3352000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2023000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2454000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2583000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4978000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3457000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2983000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2806000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2791000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2767000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2725000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2696000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2664000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2619000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3186000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2586000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2577000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2490000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2508000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2481000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2487000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2433000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2470000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2433000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2412000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2403000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2591000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2412000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2400000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2358000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2627000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>2531000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2562000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2604000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1881000000</v>
+      </c>
+      <c r="C7">
         <v>2028000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1836000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1728000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1663000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1813000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1315000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2197000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1754000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1698000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-902000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>879000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1113000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1436000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1424000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1519000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>673000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1661000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1660000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1492000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1074000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1539000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1483000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1394000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1366000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1348000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1307000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1232000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1383000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1342000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1454000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1328000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1356000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1429000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1410000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1419000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1446000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1389000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1502000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1351000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
         <v>243000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>111000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1881000000</v>
+      </c>
+      <c r="C9">
         <v>2028000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1836000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1728000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1663000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1813000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1315000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2197000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1754000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1698000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-902000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>879000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1113000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1436000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1424000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1519000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>673000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1661000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1660000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1492000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1074000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1539000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1483000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1394000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1366000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1348000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1307000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1232000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1383000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1342000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1454000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1328000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1356000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1429000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1410000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1419000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1446000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1389000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1502000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1351000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>333000000</v>
+      </c>
+      <c r="C10">
         <v>388000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>340000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>299000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>357000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>323000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>212000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>371000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>298000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>166000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-158000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>120000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>159000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>255000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>239000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>248000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>110000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>261000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>304000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>253000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-1017000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>413000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>386000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>320000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>319000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>342000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>318000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>289000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>361000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>269000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>410000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>324000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>299000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>391000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>358000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>359000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>372000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>361000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>387000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>356000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1548000000</v>
+      </c>
+      <c r="C11">
         <v>1640000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1496000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1429000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1306000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1490000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1103000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1826000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1456000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1532000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-744000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>759000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>954000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1181000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1185000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1271000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>563000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1400000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1356000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1239000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2091000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1126000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1097000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1074000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1047000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1006000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>989000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>943000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1022000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1073000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1044000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1004000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1057000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1038000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1052000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1060000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1074000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1028000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1115000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>995000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>121000000</v>
+      </c>
+      <c r="C12">
         <v>74000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>79000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>47000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>87000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>66000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>54000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>58000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>62000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>64000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>56000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>64000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>74000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>64000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>56000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>64000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>56000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>64000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>56000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>64000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>70000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>64000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>61000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>90000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>57000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>64000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>49000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>71000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>60000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>64000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>48000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>70000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>56000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>74000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>48000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>70000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>68000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>71000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>53000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>75000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>20000000</v>
+      </c>
+      <c r="C13">
         <v>16000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>15000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>21000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>13000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>16000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>12000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>14000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>13000000</v>
-      </c>
-      <c r="K13">
-        <v>7000000</v>
       </c>
       <c r="L13">
         <v>7000000</v>
       </c>
       <c r="M13">
+        <v>7000000</v>
+      </c>
+      <c r="N13">
         <v>14000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>13000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>12000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>10000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>14000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>11000000</v>
-      </c>
-      <c r="S13">
-        <v>10000000</v>
       </c>
       <c r="T13">
         <v>10000000</v>
       </c>
       <c r="U13">
+        <v>10000000</v>
+      </c>
+      <c r="V13">
         <v>11000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>12000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>10000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>17000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>22000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>18000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>23000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>19000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>14000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>18000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>4000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>21000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-2000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>13000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>2000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>4000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-8000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1407000000</v>
+      </c>
+      <c r="C14">
         <v>1550000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1402000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1361000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1206000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1408000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1037000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1758000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-3175000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1455000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3592000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>844000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>466000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1315000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1306000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1197000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1281000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1325000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1290000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1165000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2010000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1050000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1026000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>967000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>968000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>924000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>917000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>853000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>948000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>991000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>992000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>933000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>980000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>963000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1001000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>992000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>993000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>955000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1058000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>928000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>3.78</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3.39</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3.23</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.87</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.31</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.43</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.11</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.26</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3.4</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>8.4</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.96</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.98</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.95</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.89</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.62</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.77</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.84</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.74</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.45</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4.23</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2.18</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2.12</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.99</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2.01</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1.87</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.84</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1.7</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.9</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.93</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1.92</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.79</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1.88</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.82</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.88</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.86</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.87</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1.82</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2.02</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1.78</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>3.78</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.39</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3.23</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.86</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.43</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4.1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.26</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3.39</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.95</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.97</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2.94</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.88</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2.61</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.75</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.82</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.72</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2.43</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>4.18</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2.16</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2.1</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.96</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.97</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1.84</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.82</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1.68</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.87</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1.9</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.88</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.75</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1.84</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.79</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.85</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1.82</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.85</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1.79</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1.99</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1.76</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>404000000</v>
+      </c>
+      <c r="C17">
         <v>410000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>414000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>420000000</v>
-      </c>
-      <c r="E17">
-        <v>426000000</v>
       </c>
       <c r="F17">
         <v>426000000</v>
       </c>
       <c r="G17">
+        <v>426000000</v>
+      </c>
+      <c r="H17">
         <v>427000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>426000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>427000000</v>
-      </c>
-      <c r="J17">
-        <v>426000000</v>
       </c>
       <c r="K17">
         <v>426000000</v>
       </c>
       <c r="L17">
+        <v>426000000</v>
+      </c>
+      <c r="M17">
         <v>429000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>447000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>444000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>451000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>455000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>467000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>465000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>469000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>473000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>481000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>479000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>484000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>487000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>494000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>490000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>497000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>501000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>514000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>512000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>517000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>521000000</v>
-      </c>
-      <c r="AG17">
-        <v>529000000</v>
       </c>
       <c r="AH17">
         <v>529000000</v>
       </c>
       <c r="AI17">
-        <v>532000000</v>
+        <v>529000000</v>
       </c>
       <c r="AJ17">
         <v>532000000</v>
       </c>
       <c r="AK17">
+        <v>532000000</v>
+      </c>
+      <c r="AL17">
         <v>528000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>529000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>528000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>526000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>404000000</v>
+      </c>
+      <c r="C18">
         <v>410000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>414000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>420000000</v>
-      </c>
-      <c r="E18">
-        <v>426000000</v>
       </c>
       <c r="F18">
         <v>426000000</v>
       </c>
       <c r="G18">
+        <v>426000000</v>
+      </c>
+      <c r="H18">
         <v>427000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>426000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>427000000</v>
-      </c>
-      <c r="J18">
-        <v>426000000</v>
       </c>
       <c r="K18">
         <v>426000000</v>
       </c>
       <c r="L18">
+        <v>426000000</v>
+      </c>
+      <c r="M18">
         <v>430000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>448000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>445000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>452000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>456000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>470000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>467000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>472000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>476000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>486000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>483000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>488000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>492000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>500000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>496000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>503000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>507000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>521000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>520000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>525000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>529000000</v>
-      </c>
-      <c r="AG18">
-        <v>537000000</v>
       </c>
       <c r="AH18">
         <v>537000000</v>
       </c>
       <c r="AI18">
-        <v>539000000</v>
+        <v>537000000</v>
       </c>
       <c r="AJ18">
         <v>539000000</v>
       </c>
       <c r="AK18">
+        <v>539000000</v>
+      </c>
+      <c r="AL18">
         <v>532000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>534000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>531000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>528000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.8018</v>
+      </c>
+      <c r="C19">
         <v>0.8941</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.957</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9771</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.9784</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.9776</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.9749</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.969</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.9651</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9571</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.9255</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.8629</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.8288</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.8094</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.8084</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.8181</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.7947</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.852</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.866</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.8807</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.8987000000000001</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9016</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.9071</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9152</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.923</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.9244</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9231</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.9222</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.9354</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.9312</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.9386</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.9379</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.9427</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.9449</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.9438</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9461000000000001</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.9503</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.9482</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.9506</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9469</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2813,1076 +2975,1100 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.2617</v>
+      </c>
+      <c r="C21">
         <v>0.3268</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3434</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3599</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3174</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.341</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2747</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.5044999999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.4023</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3796</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-0.2048</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1749</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2252</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.274</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2731</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2899</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1574</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.3248</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.3325</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3196</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2266</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3364</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3313</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3285</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3255</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3254</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.318</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.31</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.3358</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.331</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.353</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3338</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.3239</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3515</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.3493</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3555</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3374</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.336</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3513</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.3234</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1957</v>
+      </c>
+      <c r="C22">
         <v>0.2498</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2623</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2834</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2302</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2649</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2166</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.4037</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.7282</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3253</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.8156</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.168</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.09429999999999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2509</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2505</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2285</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2996</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2591</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2584</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2496</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.4241</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2295</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2292</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2279</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2306</v>
-      </c>
-      <c r="Z22">
-        <v>0.2231</v>
       </c>
       <c r="AA22">
         <v>0.2231</v>
       </c>
       <c r="AB22">
+        <v>0.2231</v>
+      </c>
+      <c r="AC22">
         <v>0.2146</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2302</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2444</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2408</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2345</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2341</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2369</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.248</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2485</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2317</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.231</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2475</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2222</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>1548000000</v>
+      </c>
+      <c r="C23">
         <v>1640000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1496000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1429000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1306000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1490000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1103000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1826000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1456000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1532000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-744000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>759000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>954000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1181000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1185000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1271000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>563000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1400000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1356000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1239000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2091000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1126000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1097000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1074000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1047000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1006000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>989000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>943000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1022000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1073000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1044000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1004000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1057000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1038000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1052000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1060000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1074000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1028000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1115000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>995000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24">
         <v>156000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4399000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>156000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>427000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>211000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>189000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1548000000</v>
+      </c>
+      <c r="C25">
         <v>1640000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1496000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1429000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1306000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1490000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1103000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1826000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1456000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1532000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3655000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>915000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1381000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1392000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1374000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1271000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1351000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1400000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1356000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1239000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2091000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1126000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1097000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1074000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1047000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1006000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>989000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>943000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1022000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1073000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1044000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1004000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1057000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1038000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1052000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1060000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1074000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1028000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1115000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>995000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>3.8317</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3.6135</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3.4024</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.3428</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.4977</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.5831</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4.2864</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3.28</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3.4</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-1.9</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.59</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.8566</v>
-      </c>
-      <c r="N26">
-        <v>2.47</v>
       </c>
       <c r="O26">
         <v>2.47</v>
       </c>
       <c r="P26">
+        <v>2.47</v>
+      </c>
+      <c r="Q26">
         <v>2.7934</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.5885</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3.0108</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.8913</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.6195</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>4.3791</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2.3507</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2.2665</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2.2053</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2.1416</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2.0531</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.9899</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.8822</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2.0182</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2.0957</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2.0193</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1.9271</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2.0206</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.9622</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.9774</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1.9925</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2.0306</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1.9433</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2.1117</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.8916</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3.8317</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3.6135</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3.4024</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.3328</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3.4977</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.5831</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4.2864</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3.28</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3.39</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1.9</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.59</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.8427</v>
-      </c>
-      <c r="N27">
-        <v>2.47</v>
       </c>
       <c r="O27">
         <v>2.47</v>
       </c>
       <c r="P27">
+        <v>2.47</v>
+      </c>
+      <c r="Q27">
         <v>2.7873</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.5863</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.9979</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2.8729</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2.6029</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>4.3243</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2.3313</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2.248</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2.1829</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2.1156</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2.0282</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.9662</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.86</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>2.0021</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2.0635</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.9886</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1.8979</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1.9829</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1.933</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.9518</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1.9666</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>2.0079</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1.9251</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2.0998</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.8845</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28">
         <v>-0.04</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>10.28</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.36</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.9399999999999999</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.47</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29">
         <v>-0.03</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>10.28</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.37</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.9399999999999999</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.48</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.42</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>3.8317</v>
+      </c>
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3.6135</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>3.4024</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3.0718</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3.4977</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.5831</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4.2864</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.3913</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3.5962</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>8.579800000000001</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.1329</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3.1457</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>3.1351</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3.0466</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.7934</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.9261</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3.0108</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2.8913</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2.6195</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4.3791</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2.3507</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2.2665</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2.2053</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2.1416</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2.0531</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.9899</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.8822</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2.0182</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2.0957</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2.0193</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.9271</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2.0206</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.9622</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.9774</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.9925</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2.0306</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.9433</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>2.1117</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.8916</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>3.8317</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.6135</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3.4024</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3.0718</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3.4977</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.5831</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>4.2864</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3.3963</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>3.5962</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>8.579800000000001</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2.1279</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3.1386</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3.1281</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>3.0398</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2.7873</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.9008</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.9979</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2.8729</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>2.6029</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4.3243</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>2.3313</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>2.248</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>2.1829</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2.1156</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>2.0282</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.9662</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.86</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2.0021</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2.0635</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.9886</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.8979</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.9829</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.933</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.9518</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.9666</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>2.0079</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.9251</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>2.0998</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.8845</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>410000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>414000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>420000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>424000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>426000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>427000000</v>
-      </c>
-      <c r="H32">
-        <v>426000000</v>
       </c>
       <c r="I32">
         <v>426000000</v>
@@ -3894,96 +4080,99 @@
         <v>426000000</v>
       </c>
       <c r="L32">
+        <v>426000000</v>
+      </c>
+      <c r="M32">
         <v>430000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>438000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>445000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>452000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>456000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>463000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>467000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>472000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>476000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>480000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>483000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>488000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>492000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>494000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>496000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>503000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>507000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>513000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>520000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>525000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>529000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>532000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>537000000</v>
-      </c>
-      <c r="AI32">
-        <v>539000000</v>
       </c>
       <c r="AJ32">
         <v>539000000</v>
       </c>
       <c r="AK32">
+        <v>539000000</v>
+      </c>
+      <c r="AL32">
         <v>535000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>534000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>531000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>528000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4102,126 +4291,132 @@
       <c r="AN33">
         <v>0</v>
       </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>0.4314</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.4822</v>
+        <v>0.5469000000000001</v>
       </c>
       <c r="D34">
-        <v>-0.1264</v>
+        <v>0.4923</v>
       </c>
       <c r="E34">
-        <v>0.63</v>
+        <v>-0.206</v>
       </c>
       <c r="F34">
-        <v>0.3506</v>
+        <v>0.6667999999999999</v>
       </c>
       <c r="G34">
+        <v>0.2869</v>
+      </c>
+      <c r="H34">
         <v>0.2956</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1791</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.4438</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.08790000000000001</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.6873</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-0.1385</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.6303</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.1152</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.4302</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.2674</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.4998</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.2276</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.3239</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.626</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.1823</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.5454</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.1408</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.3746</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.2871</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.3704</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.118</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.06950000000000001</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.4593</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.4877</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.3389</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.0654</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.24</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.2731</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.3839</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.481</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>-0.0796</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.9918</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.1834</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.2423</v>
       </c>
     </row>
